--- a/overdue_borrows_last_month.xlsx
+++ b/overdue_borrows_last_month.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,66 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Book ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Book Title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Author</v>
-      </c>
-      <c r="D1" t="str">
-        <v>ISBN</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Due Date</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Borrower ID</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Borrower Name</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Borrower Email</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>books_56</v>
-      </c>
-      <c r="C2" t="str">
-        <v>wed15s1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>sd658</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45258.0834375</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="str">
-        <v>wemoa</v>
-      </c>
-      <c r="H2" t="str">
-        <v>wew954e@gmail.com</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>